--- a/misc/boat_logs/UmboSkiffMaintenanceLog.xlsx
+++ b/misc/boat_logs/UmboSkiffMaintenanceLog.xlsx
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z67"/>
+  <dimension ref="A1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,6 +1477,110 @@
         <v>120</v>
       </c>
     </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43661</v>
+      </c>
+      <c r="B68">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43662</v>
+      </c>
+      <c r="B69">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43663</v>
+      </c>
+      <c r="B70">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B71">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43668</v>
+      </c>
+      <c r="B72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>43669</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>43670</v>
+      </c>
+      <c r="B74">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>43671</v>
+      </c>
+      <c r="B75">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B76">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>43679</v>
+      </c>
+      <c r="B77">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>43682</v>
+      </c>
+      <c r="B78">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>43683</v>
+      </c>
+      <c r="B79">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>43685</v>
+      </c>
+      <c r="B80">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
